--- a/biology/Médecine/Facteurs_d'émergence_de_la_grippe_aviaire/Facteurs_d'émergence_de_la_grippe_aviaire.xlsx
+++ b/biology/Médecine/Facteurs_d'émergence_de_la_grippe_aviaire/Facteurs_d'émergence_de_la_grippe_aviaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facteurs_d%27%C3%A9mergence_de_la_grippe_aviaire</t>
+          <t>Facteurs_d'émergence_de_la_grippe_aviaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article est un des sous-chapitres de Grippe aviaire. Il traite des facteurs favorisant ou conditionnant l'émergence d'une situation pandémique, à partir d'un virus dit animal de la grippe aviaire. On distingue ici 7 facteurs principaux :
 écologiques,
@@ -504,7 +516,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facteurs_d%27%C3%A9mergence_de_la_grippe_aviaire</t>
+          <t>Facteurs_d'émergence_de_la_grippe_aviaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,7 +534,9 @@
           <t>Facteurs écologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il semble que tous les virus portant les 16 types d'hémagglutinine circulent potentiellement au sein des populations d'oiseaux aquatiques sauvages. Mais le rythme et le mécanisme de maintien de ces virus dans les populations aviaires n'est pas clairement compris.
 Des virus grippaux ont été isolés chez des oiseaux tant en Asie, en Amérique, en Océanie qu'en Europe chez des d'ordres très divers. Certains pouvant migrer chaque année sur de très grandes distances allant d'un hémisphère à l'autre.
@@ -544,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facteurs_d%27%C3%A9mergence_de_la_grippe_aviaire</t>
+          <t>Facteurs_d'émergence_de_la_grippe_aviaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,7 +576,9 @@
           <t>Facteurs agro-pastoraux, agro-industriels et zootechniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les migrations provoquent des flux et rassemblements cosmopolites et naturels d'espèces d'oiseaux variées. Elles mettent localement et chaque année en contact les migrateurs avec des oiseaux sauvages sédentaires et des oiseaux domestiques. Inversement, la volaille peut infecter la faune sauvage, via ses excréments, la ventilation des hangars d'élevage, les plumes ou d'autres sous-produits de l'élevage avicole. Les études phylogénétiques du H5N1 faites en 2005 ont montré que c'est très probablement dans un élevage industriel en Asie que le premier H5N1 HP (Hautement Pathogène) a émergé, et l'épisode roumain du printemps 2006 semble entièrement lié au non-respect des règles élémentaires de biosécurité par plusieurs éleveurs industriels du pays. La commercialisation des plumes doit faire l'objet d'une attention particulière, car les oiseaux peuvent se recontaminer via le toilettage.
 Les oiseaux migrateurs et la volaille peuvent aussi infecter d'autres espèces qu'aviaires (mammifères notamment / voir § consacré à ce sujet).
@@ -587,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facteurs_d%27%C3%A9mergence_de_la_grippe_aviaire</t>
+          <t>Facteurs_d'émergence_de_la_grippe_aviaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,7 +621,9 @@
           <t>Facteurs démographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un virus émergent, d'un sous-type nouveau chez l'homme, a statistiquement peu de chance de l'infecter facilement, et s'il l'infecte accidentellement, il doit s'adapter à son nouvel hôte pour bénéficier d'une large diffusion par le phénomène de contagion inter-humaine.
 Beaucoup d'experts pensent que l'adaptation d'un hybride viral nouveau (et peut être d'un variant mutant) nécessite un nombre important de cycles viraux et donc de passages d'individus à individus, ce qui laisse quelques mois à quelques années pour se préparer à une éventuelle pandémie.
@@ -625,7 +643,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facteurs_d%27%C3%A9mergence_de_la_grippe_aviaire</t>
+          <t>Facteurs_d'émergence_de_la_grippe_aviaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -643,7 +661,9 @@
           <t>Impasses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un virus nouveau peut échouer à une implantation durable et ne pas produire une forte épizootie ni initier une épidémie.
 </t>
@@ -656,7 +676,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Facteurs_d%27%C3%A9mergence_de_la_grippe_aviaire</t>
+          <t>Facteurs_d'émergence_de_la_grippe_aviaire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,7 +694,9 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une étude de 1994, relate l'infection de 2 enfants aux Pays-Bas par des virus porcins.
 Ces derniers qui ont été analysés sur le plan antigénique résultaient du réassortiment entre des virus humains dont ils portaient les antigènes de surface H3 et N2 et des virus aviaires dont ils contenaient toutes les autres protéines. La transmission à ces 2 enfants des virus hybrides n'a pas été suivie d'épidémie sans doute pour deux raisons liées à la combinaison et à la nature des différents gènes qui constituaient ces virus :
@@ -695,7 +717,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Facteurs_d%27%C3%A9mergence_de_la_grippe_aviaire</t>
+          <t>Facteurs_d'émergence_de_la_grippe_aviaire</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -713,7 +735,9 @@
           <t>Résurgence de virus anciens</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis leur apparition, des virus humains de sous-type A(H3N2) ont pu être isolés chez le porc (qui possède à la fois les récepteurs du virus aviaire et ceux du virus humain).
 La transmission aux porcs de virus humains et la circulation au sein de cette espèce de virus humains A(H1N1) et A(H3N2) est un phénomène permanent et établi.
@@ -731,7 +755,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Facteurs_d%27%C3%A9mergence_de_la_grippe_aviaire</t>
+          <t>Facteurs_d'émergence_de_la_grippe_aviaire</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -749,13 +773,15 @@
           <t>Délais de détection d'un nouveau sous-type de virus de grippe A</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les modèles mathématiques font comprendre que pour ce type de virus, dès lors que son pouvoir de contagion augmente, il importe de le détecter au plus vite, ce qui implique de pouvoir détecter tous les nouveaux variants potentiellement hautement pathogènes.
 Les réseaux locaux, nationaux et de l'OMS sont aujourd'hui mieux équipés pour ce faire qu'il y a 50 ans, mais les transports ont subi une telle accélération que la détection reste toujours aussi difficile.
 Il faut aussi comprendre vite quelle est la cause de la contagion, quand le virus vient de l'animal. Par exemple, en 1997, les Centers for Diseases Control après le 1er cas d'infection humaine par le virus aviaire A(H5N1) ont rapidement suggéré que la source majeure sinon exclusive de l'infection de l'homme était constituée par des volailles vivantes infectées, ce qui a permis de bloquer l'épidémie L'analyse génétique des virus isolés des 6 premiers cas humains avait montré que tous ces virus étaient exclusivement d'origine aviaire et qu'ils n'avaient subi aucun réassortiment avec un virus humain ou d'autre mammifère, ce qui a justifié que les autorités sanitaires imposent l'abattage total de toutes les volailles du territoire de la zone administrative spéciale de HongKong, ce qui a permis de limiter le bilan de la grippe dite « du poulet » de 1997 à 18 cas humains confirmés dont 6 sont morts.
 Ceci a empêché la co-circulation de virus A(H5N1) et de virus A(H1N1) ou A(H3N2) qui auraient pu permettre un réassortiment puisque la grippe saisonnière sévissait alors dans tout l'hémisphère nord et dans le pays.
-Voir en complément le chapitre « facteurs de risque » qui envisage d'autres hypothèses non prises en compte par le Haut Comité de la santé publique français en 2001, tels que l'immunité humaine affaiblie par la pollution, la malnutrition, l'impact éventuel non étudié d'agents mutagènes sur le virus, la mondialisation et l'accélération des flux de biens et de personnes, et bien d'autres hypothèses[1]…
+Voir en complément le chapitre « facteurs de risque » qui envisage d'autres hypothèses non prises en compte par le Haut Comité de la santé publique français en 2001, tels que l'immunité humaine affaiblie par la pollution, la malnutrition, l'impact éventuel non étudié d'agents mutagènes sur le virus, la mondialisation et l'accélération des flux de biens et de personnes, et bien d'autres hypothèses…
 </t>
         </is>
       </c>
@@ -766,7 +792,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Facteurs_d%27%C3%A9mergence_de_la_grippe_aviaire</t>
+          <t>Facteurs_d'émergence_de_la_grippe_aviaire</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -784,12 +810,14 @@
           <t>Qualité et pertinence du suivi épidémiologique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La stratégie mondiale de lutte contre les zoonoses, cadrée par la Organisation des Nations unies pour l'alimentation et l'FAO et l'OIE, sous l'égide de l'ONU s'appuie notamment sur une veille mondiale basée sur la déclaration obligatoire de certaines maladies et le contrôle des zoonoses lorsqu'elles émergent.
 Mais dans le cas de la grippe ;
 tous les pays ne déclarent pas leurs cas,
-et notamment dans l'Union européenne, la déclaration et le contrôle ne sont obligatoires que pour les sous-types Hautement pathogènes avérés, ce qui ne permet pas le suivi de variations éventuellement préoccupantes au sein de la population réelle de virus ni donc d'analyse prospective du risque écoépidémiologique. Ne faudrait-il pas également suivre et déclarer les virus IAFP[2] ?.. pour éviter tout risque de mutation vers un virus IAHP[3]. L'OIE le recommande depuis 2005 au moins pour les types type H7Nx et H5Nx. Une étude récente qui a duré quatre ans dans le nord de l'Europe a montré que les souches de virus IAFP hébergées par de nombreux canards colvert (Anas platyrhynchos) étaient génétiquement très proches des souches IAHP ayant sévi en Italie en 1999 et aux Pays-Bas en 2003.
+et notamment dans l'Union européenne, la déclaration et le contrôle ne sont obligatoires que pour les sous-types Hautement pathogènes avérés, ce qui ne permet pas le suivi de variations éventuellement préoccupantes au sein de la population réelle de virus ni donc d'analyse prospective du risque écoépidémiologique. Ne faudrait-il pas également suivre et déclarer les virus IAFP ?.. pour éviter tout risque de mutation vers un virus IAHP. L'OIE le recommande depuis 2005 au moins pour les types type H7Nx et H5Nx. Une étude récente qui a duré quatre ans dans le nord de l'Europe a montré que les souches de virus IAFP hébergées par de nombreux canards colvert (Anas platyrhynchos) étaient génétiquement très proches des souches IAHP ayant sévi en Italie en 1999 et aux Pays-Bas en 2003.
 Le groupe scientifique AHAW de l'EFSA a recommandé dans un avis de septembre 2005 que les souches faiblement pathogènes (LPAI) des sous-types H5 et H7 qui ont montré leur capacité à muter pour produire des souches hautement pathogènes soient maintenant intégrées dans la législation européenne, afin que soient prises des mesures de contrôle appropriées. Il faut développer "des systèmes de prévention précoces pour une détection précoce du LPAI (virus faiblement pathogène); texte complet de l'avis de l'EFSA : http://www.efsa.eu.int/science/afc/afc_opinions/1127_fr.html
 </t>
         </is>
